--- a/Tabela final.xlsx
+++ b/Tabela final.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisf\IA_Industria\incompatibilidade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C38AB58-3AF8-45F4-9EE0-8F0B220389C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2200F9FF-A7E3-41D0-8FD7-F6E7E7672F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base_Dados" sheetId="7" r:id="rId1"/>
     <sheet name="Amina" sheetId="1" r:id="rId2"/>
     <sheet name="Álcool" sheetId="3" r:id="rId3"/>
     <sheet name="Ester" sheetId="2" r:id="rId4"/>
+    <sheet name="aldeído" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Amina!$A$1:$H$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base_Dados!$A$1:$E$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base_Dados!$B$1:$E$73</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,50 +43,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="3">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="3">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-    <bk>
-      <rc t="1" v="1"/>
-    </bk>
-    <bk>
-      <rc t="1" v="2"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="103">
   <si>
     <t>Grupo funcional</t>
   </si>
@@ -309,22 +268,91 @@
     <t>Água purificada</t>
   </si>
   <si>
+    <t>Origem da impureza</t>
+  </si>
+  <si>
+    <t>Impurezas dos excipientes</t>
+  </si>
+  <si>
     <t>Classificação do excipiente</t>
   </si>
   <si>
     <t>Solvente</t>
   </si>
   <si>
+    <t>Propionaldeído (0,002%)</t>
+  </si>
+  <si>
     <t>Edulcorante</t>
   </si>
   <si>
+    <t>Açucares redutores (0,2%)</t>
+  </si>
+  <si>
+    <t>Açucares redutores (0,3%)</t>
+  </si>
+  <si>
+    <t>Aldeídos (10 ppm)</t>
+  </si>
+  <si>
+    <t>Halogênios (35 ppm)</t>
+  </si>
+  <si>
+    <t>Impureza A (5,7%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alcalinizante e acidificante </t>
   </si>
   <si>
-    <t>Excipientes</t>
-  </si>
-  <si>
-    <t>Impurezas dos excipientes</t>
+    <t>Água (15%)</t>
+  </si>
+  <si>
+    <t>Água  (1%)</t>
+  </si>
+  <si>
+    <t>Polióis (2%)</t>
+  </si>
+  <si>
+    <t>Água (2%)</t>
+  </si>
+  <si>
+    <t>Água (5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amônio </t>
+  </si>
+  <si>
+    <t>Água (12%)</t>
+  </si>
+  <si>
+    <t>Impureza A (0,5%)</t>
+  </si>
+  <si>
+    <t>Impureza B (2,0%)</t>
+  </si>
+  <si>
+    <t>Impureza C (0,5%)</t>
+  </si>
+  <si>
+    <t>Impureza D (2,0%)</t>
+  </si>
+  <si>
+    <t>Impureza E (0,5%)</t>
+  </si>
+  <si>
+    <t>Impureza F (0,5%)</t>
+  </si>
+  <si>
+    <t>Impureza G (0,5%)</t>
+  </si>
+  <si>
+    <t>Água (0,5%)</t>
+  </si>
+  <si>
+    <t>Metanol (0,1%)</t>
+  </si>
+  <si>
+    <t>Água (0,2%)</t>
   </si>
 </sst>
 </file>
@@ -343,52 +371,47 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -424,7 +447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -523,11 +546,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,22 +723,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,6 +763,102 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3981450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1447800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8818ED-3833-9C61-4FC2-EC71C5BB046C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="638175"/>
+          <a:ext cx="3838575" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3867150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1381125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C24365D-9907-3358-4057-1BAB43AA527B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EF8818ED-3833-9C61-4FC2-EC71C5BB046C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6029325" y="2085975"/>
+          <a:ext cx="3676650" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -741,7 +874,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2BD69F-B27E-0FC0-058B-1BFB846A8A8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42AF7378-EF12-4B36-9255-F41602AF555C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -757,7 +890,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7553325" y="552450"/>
+          <a:off x="7620000" y="552450"/>
           <a:ext cx="4600575" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -768,80 +901,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>1</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>2</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-  <rel r:id="rId2"/>
-  <rel r:id="rId3"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1161,55 +1220,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DA4105-2C02-408D-BE9E-32A30E90C270}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="35.7265625" customWidth="1"/>
     <col min="6" max="6" width="33.453125" customWidth="1"/>
-    <col min="7" max="7" width="56.08984375" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="C1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="54" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="54" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="118" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="C2" s="56" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="58" t="s">
         <v>12</v>
@@ -1218,21 +1277,21 @@
         <v>11</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="59" t="e" vm="1">
-        <v>#VALUE!</v>
+        <v>77</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="C3" s="56" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="58" t="s">
         <v>12</v>
@@ -1241,19 +1300,21 @@
         <v>14</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="C4" s="56" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="58" t="s">
         <v>12</v>
@@ -1262,19 +1323,21 @@
         <v>15</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="C5" s="56" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>10</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>12</v>
@@ -1283,19 +1346,21 @@
         <v>16</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="C6" s="56" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="58" t="s">
         <v>12</v>
@@ -1304,19 +1369,21 @@
         <v>18</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="C7" s="56" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>10</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>21</v>
@@ -1325,1369 +1392,1532 @@
         <v>20</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="C8" s="56" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>10</v>
       </c>
       <c r="D8" s="60" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="C9" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="56" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="59"/>
+      <c r="F9" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="C10" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="59"/>
+      <c r="F10" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="C11" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="61" t="s">
-        <v>10</v>
-      </c>
       <c r="D11" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="59"/>
+        <v>46</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="C12" s="56" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>10</v>
       </c>
       <c r="D12" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="59"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="55" t="s">
+      <c r="F16" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="C17" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="61" t="s">
+      <c r="D17" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="59"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="55" t="s">
+      <c r="E17" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="59"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="55" t="s">
+      <c r="C18" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="C19" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="59"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="59"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="59"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="61" t="s">
+      <c r="D19" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="59"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="59"/>
+      <c r="E19" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="56" t="s">
+      <c r="A20" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="56" t="s">
         <v>45</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>10</v>
       </c>
       <c r="D20" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="59"/>
+      <c r="E20" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="56" t="s">
+      <c r="A21" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="56" t="s">
         <v>45</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>10</v>
       </c>
       <c r="D21" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="59"/>
+      <c r="E21" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="61" t="s">
+      <c r="A22" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="59"/>
+      <c r="E22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="61" t="s">
+      <c r="A23" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="59"/>
+      <c r="E23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="61" t="s">
+      <c r="A24" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="59"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="61" t="s">
+      <c r="E25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="61" t="s">
+      <c r="F25" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="59"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="61" t="s">
+      <c r="E27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="59"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="59"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="61" t="s">
+      <c r="D28" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="D29" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="59"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="59"/>
+      <c r="E29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="56" t="s">
+      <c r="A30" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="56" t="s">
         <v>9</v>
-      </c>
-      <c r="C30" s="57" t="s">
-        <v>10</v>
       </c>
       <c r="D30" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="58" t="s">
-        <v>12</v>
+      <c r="E30" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="F30" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G30" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="56" t="s">
+      <c r="A31" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="56" t="s">
         <v>9</v>
-      </c>
-      <c r="C31" s="57" t="s">
-        <v>10</v>
       </c>
       <c r="D31" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="58" t="s">
-        <v>12</v>
+      <c r="E31" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="F31" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G31" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="56" t="s">
+      <c r="A32" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="56" t="s">
         <v>9</v>
-      </c>
-      <c r="C32" s="57" t="s">
-        <v>10</v>
       </c>
       <c r="D32" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="58" t="s">
-        <v>12</v>
+      <c r="E32" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="F32" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G32" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="56" t="s">
+      <c r="A33" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="56" t="s">
         <v>9</v>
-      </c>
-      <c r="C33" s="57" t="s">
-        <v>10</v>
       </c>
       <c r="D33" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="58" t="s">
-        <v>12</v>
+      <c r="E33" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="F33" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G33" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="56" t="s">
+      <c r="A34" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="56" t="s">
         <v>17</v>
-      </c>
-      <c r="C34" s="57" t="s">
-        <v>10</v>
       </c>
       <c r="D34" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="58" t="s">
-        <v>12</v>
+      <c r="E34" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F34" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G34" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="56" t="s">
+      <c r="A35" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="56" t="s">
         <v>19</v>
-      </c>
-      <c r="C35" s="57" t="s">
-        <v>10</v>
       </c>
       <c r="D35" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="58" t="s">
-        <v>21</v>
+      <c r="E35" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="F35" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G35" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="56" t="s">
+      <c r="A36" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="56" t="s">
         <v>22</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>10</v>
       </c>
       <c r="D36" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="60" t="s">
-        <v>24</v>
+      <c r="E36" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="F36" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G36" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="56" t="s">
+      <c r="A37" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="57" t="s">
-        <v>49</v>
-      </c>
       <c r="D37" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="57" t="s">
+      <c r="E37" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="59"/>
+        <v>85</v>
+      </c>
+      <c r="G37" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="65" t="s">
+      <c r="A38" s="57" t="s">
         <v>51</v>
       </c>
+      <c r="B38" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>44</v>
+      </c>
       <c r="D38" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="59"/>
+      <c r="E38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="61" t="s">
-        <v>44</v>
+      <c r="A39" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="55" t="s">
+        <v>47</v>
       </c>
       <c r="C39" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="61" t="s">
+      <c r="E39" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="59"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="61" t="s">
+      <c r="E40" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G40" s="59"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G41" s="59"/>
+      <c r="E41" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="61" t="s">
+      <c r="A42" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="61" t="s">
+      <c r="D42" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G42" s="59"/>
+      <c r="E42" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="61" t="s">
+      <c r="A43" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G43" s="59"/>
+      <c r="B43" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="61" t="s">
+      <c r="A44" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="61" t="s">
+      <c r="D44" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="61" t="s">
+      <c r="E44" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="F44" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G44" s="59"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="F45" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="59"/>
+      <c r="E45" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="61" t="s">
+      <c r="A46" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G46" s="59"/>
+      <c r="B46" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="61" t="s">
+      <c r="A47" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="61" t="s">
+      <c r="D47" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" s="59"/>
+      <c r="E47" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="61" t="s">
+      <c r="A48" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G48" s="59"/>
+      <c r="B48" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="61" t="s">
+      <c r="A49" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61" t="s">
+      <c r="D49" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="61" t="s">
+      <c r="E49" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F49" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G49" s="59"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61" t="s">
+      <c r="E50" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="61" t="s">
+      <c r="E51" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G50" s="59"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="F51" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G51" s="59"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="F52" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G52" s="59"/>
+      <c r="E52" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="63" t="s">
+      <c r="A53" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G53" s="59"/>
+      <c r="B53" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="61"/>
+      <c r="A54" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>44</v>
+      </c>
       <c r="D54" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="E54" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G54" s="59"/>
+      <c r="E54" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="63" t="s">
+      <c r="A55" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G55" s="59"/>
+      <c r="B55" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="61" t="s">
+      <c r="A56" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="61"/>
       <c r="D56" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G56" s="59"/>
+      <c r="E56" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="61" t="s">
-        <v>10</v>
+      <c r="A57" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="56" t="s">
+        <v>44</v>
       </c>
       <c r="D57" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E57" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="F57" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" s="59"/>
+      <c r="E57" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="61" t="s">
-        <v>10</v>
+      <c r="A58" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="56" t="s">
+        <v>44</v>
       </c>
       <c r="D58" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="F58" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G58" s="59"/>
+      <c r="E58" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="61" t="s">
-        <v>10</v>
+      <c r="A59" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="56" t="s">
+        <v>44</v>
       </c>
       <c r="D59" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" s="59"/>
+      <c r="E59" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="61" t="s">
-        <v>10</v>
+      <c r="A60" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="56" t="s">
+        <v>44</v>
       </c>
       <c r="D60" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E60" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="F60" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" s="59"/>
+      <c r="E60" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F60" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B61" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="61" t="s">
-        <v>10</v>
+      <c r="A61" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="56" t="s">
+        <v>44</v>
       </c>
       <c r="D61" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E61" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="F61" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G61" s="59"/>
+      <c r="E61" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="61" t="s">
-        <v>10</v>
+      <c r="A62" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="56" t="s">
+        <v>44</v>
       </c>
       <c r="D62" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="F62" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" s="59"/>
+      <c r="E62" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F62" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="61" t="s">
-        <v>10</v>
+      <c r="A63" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="56" t="s">
+        <v>44</v>
       </c>
       <c r="D63" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E63" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="F63" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" s="59"/>
+      <c r="E63" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="F63" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="61" t="s">
+      <c r="A64" s="56" t="s">
         <v>12</v>
       </c>
+      <c r="B64" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="56" t="s">
+        <v>44</v>
+      </c>
       <c r="D64" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="63" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="F64" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G64" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G64" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="61"/>
+      <c r="A65" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="56" t="s">
+        <v>44</v>
+      </c>
       <c r="D65" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="63" t="s">
-        <v>12</v>
+      <c r="E65" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="F65" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G65" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G65" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" s="61" t="s">
+      <c r="A66" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C66" s="61"/>
       <c r="D66" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="63" t="s">
-        <v>12</v>
+      <c r="E66" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="F66" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G66" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G66" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B67" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="61" t="s">
+      <c r="A67" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
+      <c r="B67" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="F67" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G67" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G67" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="61"/>
+      <c r="A68" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="56" t="s">
+        <v>44</v>
+      </c>
       <c r="D68" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="E68" s="63" t="s">
-        <v>70</v>
+      <c r="E68" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="F68" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G68" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G68" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="61"/>
+      <c r="A69" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="56" t="s">
+        <v>44</v>
+      </c>
       <c r="D69" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="E69" s="63" t="s">
-        <v>70</v>
+      <c r="E69" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="F69" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G69" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G69" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B70" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" s="61" t="s">
+      <c r="A70" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
+      <c r="B70" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="F70" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G70" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G70" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B71" s="61" t="s">
+      <c r="A71" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="61"/>
       <c r="D71" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E71" s="63" t="s">
-        <v>24</v>
+      <c r="E71" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="F71" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G71" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G71" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B72" s="61" t="s">
+      <c r="A72" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
+      <c r="D72" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="F72" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G72" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G72" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B73" s="61" t="s">
+      <c r="A73" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C73" s="61"/>
       <c r="D73" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="63" t="s">
-        <v>73</v>
+      <c r="E73" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="F73" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G73" s="59"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B74" s="59"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G74" s="59"/>
+        <v>77</v>
+      </c>
+      <c r="G73" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E74" xr:uid="{44DA4105-2C02-408D-BE9E-32A30E90C270}"/>
+  <autoFilter ref="B1:E73" xr:uid="{44DA4105-2C02-408D-BE9E-32A30E90C270}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -2696,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2754,9 +2984,7 @@
       <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="11" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
+      <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
         <v>13</v>
       </c>
@@ -2778,9 +3006,7 @@
       <c r="E3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="12" t="s">
         <v>13</v>
       </c>
@@ -3149,6 +3375,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3157,7 +3384,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E18"/>
+      <selection activeCell="D2" sqref="D2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3650,7 +3877,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E39"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3692,331 +3919,169 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="122.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="19" t="s">
-        <v>50</v>
-      </c>
+      <c r="G2" s="19"/>
       <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>51</v>
-      </c>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
       <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>46</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>10</v>
-      </c>
+      <c r="A11" s="20"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="A12" s="20"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>10</v>
-      </c>
+      <c r="A13" s="20"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="A14" s="20"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>33</v>
-      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="A15" s="20"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>33</v>
-      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>33</v>
-      </c>
+      <c r="A16" s="20"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A17" s="20"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>33</v>
-      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>38</v>
-      </c>
+      <c r="A18" s="20"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="7"/>
       <c r="E18" s="20"/>
       <c r="F18" s="4"/>
@@ -4024,33 +4089,19 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A19" s="20"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>38</v>
-      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="52"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>62</v>
-      </c>
+      <c r="A20" s="20"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="7"/>
       <c r="E20" s="20"/>
       <c r="F20" s="4"/>
@@ -4058,227 +4109,119 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="A21" s="20"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>62</v>
-      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="52"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>62</v>
-      </c>
+      <c r="A22" s="20"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>62</v>
-      </c>
+      <c r="A23" s="20"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="52"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="52" t="s">
-        <v>62</v>
-      </c>
+      <c r="A24" s="20"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="52"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>62</v>
-      </c>
+      <c r="A25" s="20"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="52"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>62</v>
-      </c>
+      <c r="A26" s="20"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="52" t="s">
-        <v>62</v>
-      </c>
+      <c r="A27" s="20"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="52"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="53" t="s">
-        <v>62</v>
-      </c>
+      <c r="A28" s="20"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="A29" s="20"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="41" t="s">
-        <v>12</v>
-      </c>
+      <c r="E29" s="41"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A30" s="20"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>12</v>
-      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="A31" s="20"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="41" t="s">
-        <v>12</v>
-      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="41"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="A32" s="20"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4"/>
@@ -4286,51 +4229,29 @@
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A33" s="20"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>70</v>
-      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="41"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A34" s="20"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>70</v>
-      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="41"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="A35" s="20"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="4"/>
@@ -4338,33 +4259,19 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="A36" s="20"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>24</v>
-      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="41"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="A37" s="20"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="4"/>
@@ -4372,27 +4279,17 @@
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="A38" s="20"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>73</v>
-      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="41"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="20" t="s">
-        <v>47</v>
-      </c>
+      <c r="A39" s="20"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -4403,6 +4300,765 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3D38AE-1CB5-4537-BEB9-6D18C95EAAA0}">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="29.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" customWidth="1"/>
+    <col min="6" max="6" width="71.453125" customWidth="1"/>
+    <col min="7" max="7" width="33.1796875" customWidth="1"/>
+    <col min="8" max="8" width="20.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="122.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tabela final.xlsx
+++ b/Tabela final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisf\IA_Industria\incompatibilidade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8765B9D-D030-418F-9420-50D42B8742DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB88CD45-691E-4DC9-9680-9650071CEA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base_Dados" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Amina!$B$1:$H$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base_Dados!$B$1:$E$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base_Dados!$A$1:$G$107</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3716,6 +3716,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G107" xr:uid="{44DA4105-2C02-408D-BE9E-32A30E90C270}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/Tabela final.xlsx
+++ b/Tabela final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisf\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisf\IA_Industria\incompatibilidade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3450D5B6-7CA2-486B-9422-A8E570162AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273D9A95-7C3A-4DFE-85E8-0778BE46CB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha geral" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Amina!$A$1:$H$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planilha geral'!$B$1:$F$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planilha geral'!$B$1:$E$73</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4019" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3758" uniqueCount="101">
   <si>
     <t>Grupo funcional</t>
   </si>
@@ -1538,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DA4105-2C02-408D-BE9E-32A30E90C270}">
-  <dimension ref="A1:H261"/>
+  <dimension ref="A1:G261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1549,14 +1549,13 @@
     <col min="1" max="1" width="16.6328125" customWidth="1"/>
     <col min="2" max="2" width="21.26953125" customWidth="1"/>
     <col min="3" max="3" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="28.81640625" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="35.7265625" customWidth="1"/>
-    <col min="7" max="7" width="33.453125" customWidth="1"/>
-    <col min="8" max="8" width="28.453125" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="35.7265625" customWidth="1"/>
+    <col min="6" max="6" width="33.453125" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="87" t="s">
         <v>2</v>
       </c>
@@ -1575,14 +1574,11 @@
       <c r="F1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1593,22 +1589,19 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G2" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1619,22 +1612,19 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G3" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1645,22 +1635,19 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G4" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1671,22 +1658,19 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G5" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1697,22 +1681,19 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G6" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1723,22 +1704,19 @@
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G7" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1748,23 +1726,20 @@
       <c r="C8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="23" t="s">
         <v>22</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G8" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="25" t="s">
         <v>9</v>
       </c>
@@ -1775,22 +1750,19 @@
         <v>8</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="E9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="25" t="s">
         <v>9</v>
       </c>
@@ -1801,22 +1773,19 @@
         <v>8</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
         <v>9</v>
       </c>
@@ -1826,23 +1795,20 @@
       <c r="C11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="E11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
         <v>9</v>
       </c>
@@ -1852,23 +1818,20 @@
       <c r="C12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="E12" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
         <v>9</v>
       </c>
@@ -1879,22 +1842,19 @@
         <v>28</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>9</v>
       </c>
@@ -1904,23 +1864,20 @@
       <c r="C14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>9</v>
+      <c r="D14" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
         <v>9</v>
       </c>
@@ -1931,22 +1888,19 @@
         <v>8</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
         <v>9</v>
       </c>
@@ -1957,22 +1911,19 @@
         <v>28</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
         <v>9</v>
       </c>
@@ -1983,22 +1934,19 @@
         <v>28</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
         <v>40</v>
       </c>
@@ -2009,22 +1957,19 @@
         <v>8</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
         <v>9</v>
       </c>
@@ -2035,22 +1980,19 @@
         <v>8</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -2060,23 +2002,20 @@
       <c r="C20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -2086,23 +2025,20 @@
       <c r="C21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="E21" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -2112,23 +2048,20 @@
       <c r="C22" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
+      <c r="D22" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -2138,23 +2071,20 @@
       <c r="C23" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>9</v>
+      <c r="D23" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -2164,23 +2094,20 @@
       <c r="C24" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>9</v>
+      <c r="D24" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -2190,23 +2117,20 @@
       <c r="C25" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
+      <c r="D25" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -2216,23 +2140,20 @@
       <c r="C26" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
+      <c r="D26" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -2242,23 +2163,20 @@
       <c r="C27" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
+      <c r="D27" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -2268,23 +2186,20 @@
       <c r="C28" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>40</v>
+      <c r="D28" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -2294,23 +2209,20 @@
       <c r="C29" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="E29" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -2321,22 +2233,19 @@
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G30" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -2347,22 +2256,19 @@
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G31" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -2373,22 +2279,19 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G32" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -2399,22 +2302,19 @@
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G33" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -2425,22 +2325,19 @@
         <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H34" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G34" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -2451,22 +2348,19 @@
         <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G35" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -2476,23 +2370,20 @@
       <c r="C36" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="23" t="s">
+      <c r="D36" s="23" t="s">
         <v>22</v>
       </c>
+      <c r="E36" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G36" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>79</v>
       </c>
@@ -2503,22 +2394,19 @@
         <v>78</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H37" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G37" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="40" t="s">
         <v>56</v>
       </c>
@@ -2528,23 +2416,20 @@
       <c r="C38" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
         <v>9</v>
       </c>
@@ -2554,23 +2439,20 @@
       <c r="C39" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>9</v>
+      <c r="D39" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F39" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
         <v>9</v>
       </c>
@@ -2580,23 +2462,20 @@
       <c r="C40" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="19" t="s">
-        <v>9</v>
+      <c r="D40" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="19" t="s">
         <v>9</v>
       </c>
@@ -2606,23 +2485,20 @@
       <c r="C41" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="25" t="s">
+      <c r="D41" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="E41" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="19" t="s">
         <v>9</v>
       </c>
@@ -2632,23 +2508,20 @@
       <c r="C42" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>9</v>
+      <c r="D42" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="25" t="s">
         <v>45</v>
       </c>
@@ -2659,22 +2532,19 @@
         <v>42</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="25" t="s">
         <v>9</v>
       </c>
@@ -2685,22 +2555,19 @@
         <v>50</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F44" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="25" t="s">
         <v>9</v>
       </c>
@@ -2711,22 +2578,19 @@
         <v>42</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F45" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="25" t="s">
         <v>31</v>
       </c>
@@ -2737,22 +2601,19 @@
         <v>42</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F46" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="25" t="s">
         <v>9</v>
       </c>
@@ -2763,22 +2624,19 @@
         <v>50</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H47" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F47" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="25" t="s">
         <v>33</v>
       </c>
@@ -2789,22 +2647,19 @@
         <v>42</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H48" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F48" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="25" t="s">
         <v>9</v>
       </c>
@@ -2815,22 +2670,19 @@
         <v>50</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G49" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H49" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F49" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="25" t="s">
         <v>9</v>
       </c>
@@ -2841,22 +2693,19 @@
         <v>64</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="G50" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H50" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F50" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="25" t="s">
         <v>9</v>
       </c>
@@ -2867,22 +2716,19 @@
         <v>42</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F51" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G51" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H51" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F51" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="25" t="s">
         <v>9</v>
       </c>
@@ -2893,22 +2739,19 @@
         <v>42</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F52" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H52" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F52" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>40</v>
       </c>
@@ -2918,23 +2761,20 @@
       <c r="C53" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>40</v>
+      <c r="D53" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="E53" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F53" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="25" t="s">
         <v>9</v>
       </c>
@@ -2944,23 +2784,20 @@
       <c r="C54" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="25" t="s">
+      <c r="E54" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H54" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F54" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>68</v>
       </c>
@@ -2970,23 +2807,20 @@
       <c r="C55" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>68</v>
+      <c r="D55" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="E55" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H55" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F55" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G55" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="25" t="s">
         <v>9</v>
       </c>
@@ -2996,23 +2830,20 @@
       <c r="C56" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D56" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F56" s="25" t="s">
+      <c r="E56" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G56" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H56" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F56" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G56" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="25" t="s">
         <v>9</v>
       </c>
@@ -3022,23 +2853,20 @@
       <c r="C57" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F57" s="25" t="s">
+      <c r="E57" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G57" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H57" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F57" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="25" t="s">
         <v>9</v>
       </c>
@@ -3048,23 +2876,20 @@
       <c r="C58" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F58" s="25" t="s">
+      <c r="E58" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G58" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H58" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F58" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G58" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="25" t="s">
         <v>9</v>
       </c>
@@ -3074,23 +2899,20 @@
       <c r="C59" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D59" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="6" t="s">
+      <c r="D59" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F59" s="25" t="s">
+      <c r="E59" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H59" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F59" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G59" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="25" t="s">
         <v>9</v>
       </c>
@@ -3100,23 +2922,20 @@
       <c r="C60" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F60" s="25" t="s">
+      <c r="E60" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G60" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H60" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F60" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G60" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="25" t="s">
         <v>9</v>
       </c>
@@ -3126,23 +2945,20 @@
       <c r="C61" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F61" s="25" t="s">
+      <c r="E61" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G61" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H61" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F61" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G61" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="25" t="s">
         <v>9</v>
       </c>
@@ -3152,23 +2968,20 @@
       <c r="C62" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D62" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="6" t="s">
+      <c r="D62" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F62" s="25" t="s">
+      <c r="E62" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G62" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H62" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F62" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G62" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="25" t="s">
         <v>9</v>
       </c>
@@ -3178,23 +2991,20 @@
       <c r="C63" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="6" t="s">
+      <c r="D63" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F63" s="25" t="s">
+      <c r="E63" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G63" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H63" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F63" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G63" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="25" t="s">
         <v>10</v>
       </c>
@@ -3204,23 +3014,20 @@
       <c r="C64" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="1" t="s">
+      <c r="D64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H64" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G64" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="25" t="s">
         <v>9</v>
       </c>
@@ -3230,23 +3037,20 @@
       <c r="C65" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D65" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="6" t="s">
+      <c r="D65" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="25" t="s">
+      <c r="E65" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H65" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G65" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="25" t="s">
         <v>9</v>
       </c>
@@ -3256,23 +3060,20 @@
       <c r="C66" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D66" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="E66" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H66" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G66" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="25" t="s">
         <v>85</v>
       </c>
@@ -3283,22 +3084,19 @@
         <v>42</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="E67" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G67" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="25" t="s">
         <v>9</v>
       </c>
@@ -3308,23 +3106,20 @@
       <c r="C68" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="6" t="s">
+      <c r="D68" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F68" s="25" t="s">
+      <c r="E68" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H68" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G68" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="25" t="s">
         <v>9</v>
       </c>
@@ -3334,23 +3129,20 @@
       <c r="C69" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="6" t="s">
+      <c r="D69" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F69" s="25" t="s">
+      <c r="E69" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G69" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="25" t="s">
         <v>86</v>
       </c>
@@ -3361,22 +3153,19 @@
         <v>42</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="E70" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H70" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G70" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="25" t="s">
         <v>9</v>
       </c>
@@ -3386,23 +3175,20 @@
       <c r="C71" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D71" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="6" t="s">
+      <c r="D71" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F71" s="25" t="s">
+      <c r="E71" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H71" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G71" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="25" t="s">
         <v>87</v>
       </c>
@@ -3413,22 +3199,19 @@
         <v>50</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="E72" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H72" s="82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G72" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="25" t="s">
         <v>9</v>
       </c>
@@ -3438,23 +3221,20 @@
       <c r="C73" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="6" t="s">
+      <c r="D73" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F73" s="25" t="s">
+      <c r="E73" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H73" s="83" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G73" s="83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,22 +3245,19 @@
         <v>50</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H74" s="85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G74" s="85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="40" t="s">
         <v>22</v>
       </c>
@@ -3490,23 +3267,20 @@
       <c r="C75" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D75" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="1" t="s">
+      <c r="D75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H75" s="85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G75" s="85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="40" t="s">
         <v>9</v>
       </c>
@@ -3517,22 +3291,19 @@
         <v>51</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E76" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G76" s="85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>19</v>
       </c>
@@ -3542,23 +3313,20 @@
       <c r="C77" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>19</v>
+      <c r="D77" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="E77" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G77" s="85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="19" t="s">
         <v>9</v>
       </c>
@@ -3568,23 +3336,20 @@
       <c r="C78" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D78" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="25" t="s">
+      <c r="D78" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F78" s="19" t="s">
+      <c r="E78" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H78" s="85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G78" s="85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="19" t="s">
         <v>9</v>
       </c>
@@ -3594,23 +3359,20 @@
       <c r="C79" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="19" t="s">
-        <v>9</v>
+      <c r="D79" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H79" s="85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G79" s="85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="25" t="s">
         <v>10</v>
       </c>
@@ -3621,22 +3383,19 @@
         <v>42</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H80" s="85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G80" s="85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="25" t="s">
         <v>9</v>
       </c>
@@ -3647,22 +3406,19 @@
         <v>42</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G81" s="85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="25" t="s">
         <v>9</v>
       </c>
@@ -3673,22 +3429,19 @@
         <v>50</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H82" s="85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G82" s="85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="25" t="s">
         <v>56</v>
       </c>
@@ -3699,22 +3452,19 @@
         <v>42</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="E83" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F83" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H83" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F83" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G83" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="25" t="s">
         <v>9</v>
       </c>
@@ -3725,22 +3475,19 @@
         <v>42</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F84" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="G84" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H84" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F84" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G84" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="25" t="s">
         <v>9</v>
       </c>
@@ -3751,22 +3498,19 @@
         <v>42</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F85" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G85" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H85" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F85" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G85" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="25" t="s">
         <v>9</v>
       </c>
@@ -3777,22 +3521,19 @@
         <v>42</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F86" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G86" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H86" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F86" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G86" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="25" t="s">
         <v>9</v>
       </c>
@@ -3803,22 +3544,19 @@
         <v>51</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F87" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G87" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H87" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F87" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G87" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="25" t="s">
         <v>45</v>
       </c>
@@ -3829,22 +3567,19 @@
         <v>42</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E88" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H88" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F88" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G88" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="25" t="s">
         <v>9</v>
       </c>
@@ -3855,22 +3590,19 @@
         <v>51</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F89" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="G89" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H89" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F89" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G89" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>9</v>
       </c>
@@ -3880,23 +3612,20 @@
       <c r="C90" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>9</v>
+      <c r="D90" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F90" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G90" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H90" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F90" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G90" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="25" t="s">
         <v>31</v>
       </c>
@@ -3907,22 +3636,19 @@
         <v>42</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E91" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F91" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H91" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F91" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G91" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>33</v>
       </c>
@@ -3932,23 +3658,20 @@
       <c r="C92" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>33</v>
+      <c r="D92" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="E92" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F92" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H92" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F92" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G92" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="25" t="s">
         <v>9</v>
       </c>
@@ -3959,22 +3682,19 @@
         <v>51</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="E93" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G93" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H93" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F93" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G93" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="25" t="s">
         <v>9</v>
       </c>
@@ -3985,22 +3705,19 @@
         <v>64</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="E94" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G94" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H94" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F94" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G94" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="25" t="s">
         <v>9</v>
       </c>
@@ -4011,22 +3728,19 @@
         <v>42</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="E95" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G95" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H95" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F95" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G95" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="25" t="s">
         <v>9</v>
       </c>
@@ -4037,22 +3751,19 @@
         <v>42</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="E96" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G96" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H96" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F96" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G96" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="28" x14ac:dyDescent="0.35">
       <c r="A97" s="41" t="s">
         <v>40</v>
       </c>
@@ -4062,23 +3773,20 @@
       <c r="C97" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D97" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E97" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H97" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D97" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G97" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="25" t="s">
         <v>9</v>
       </c>
@@ -4088,23 +3796,20 @@
       <c r="C98" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D98" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="71" t="s">
+      <c r="D98" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="F98" s="33" t="s">
+      <c r="E98" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G98" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H98" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F98" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G98" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>68</v>
       </c>
@@ -4114,23 +3819,20 @@
       <c r="C99" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D99" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E99" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H99" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D99" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G99" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="25" t="s">
         <v>9</v>
       </c>
@@ -4140,23 +3842,20 @@
       <c r="C100" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D100" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="44" t="s">
+      <c r="D100" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="E100" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G100" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H100" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F100" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G100" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="25" t="s">
         <v>9</v>
       </c>
@@ -4166,23 +3865,20 @@
       <c r="C101" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D101" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="44" t="s">
+      <c r="D101" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="E101" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G101" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H101" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F101" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G101" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="25" t="s">
         <v>9</v>
       </c>
@@ -4192,23 +3888,20 @@
       <c r="C102" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D102" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="44" t="s">
+      <c r="D102" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F102" s="25" t="s">
+      <c r="E102" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G102" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H102" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F102" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G102" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="25" t="s">
         <v>9</v>
       </c>
@@ -4218,23 +3911,20 @@
       <c r="C103" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D103" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103" s="44" t="s">
+      <c r="D103" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F103" s="25" t="s">
+      <c r="E103" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G103" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H103" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F103" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G103" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="25" t="s">
         <v>9</v>
       </c>
@@ -4244,23 +3934,20 @@
       <c r="C104" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D104" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="44" t="s">
+      <c r="D104" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F104" s="25" t="s">
+      <c r="E104" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G104" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H104" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F104" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G104" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="25" t="s">
         <v>9</v>
       </c>
@@ -4270,23 +3957,20 @@
       <c r="C105" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D105" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" s="44" t="s">
+      <c r="D105" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F105" s="25" t="s">
+      <c r="E105" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G105" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H105" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F105" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G105" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="25" t="s">
         <v>9</v>
       </c>
@@ -4296,23 +3980,20 @@
       <c r="C106" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D106" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" s="44" t="s">
+      <c r="D106" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F106" s="25" t="s">
+      <c r="E106" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G106" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H106" s="86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F106" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G106" s="86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="25" t="s">
         <v>9</v>
       </c>
@@ -4322,23 +4003,20 @@
       <c r="C107" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D107" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="44" t="s">
+      <c r="D107" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F107" s="25" t="s">
+      <c r="E107" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G107" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H107" s="66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F107" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G107" s="66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>9</v>
       </c>
@@ -4349,22 +4027,19 @@
         <v>50</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H108" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="G108" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="40" t="s">
         <v>9</v>
       </c>
@@ -4374,23 +4049,20 @@
       <c r="C109" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D109" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F109" s="40" t="s">
+      <c r="E109" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="G109" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H109" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F109" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G109" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="40" t="s">
         <v>9</v>
       </c>
@@ -4401,22 +4073,19 @@
         <v>50</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E110" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F110" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H110" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G110" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>9</v>
       </c>
@@ -4426,23 +4095,20 @@
       <c r="C111" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D111" s="6" t="s">
-        <v>9</v>
+      <c r="D111" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F111" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H111" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G111" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="19" t="s">
         <v>9</v>
       </c>
@@ -4452,23 +4118,20 @@
       <c r="C112" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D112" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="25" t="s">
+      <c r="D112" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F112" s="19" t="s">
+      <c r="E112" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="F112" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H112" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G112" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="19" t="s">
         <v>9</v>
       </c>
@@ -4478,23 +4141,20 @@
       <c r="C113" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D113" s="19" t="s">
-        <v>9</v>
+      <c r="D113" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F113" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H113" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G113" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="25" t="s">
         <v>50</v>
       </c>
@@ -4505,22 +4165,19 @@
         <v>50</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H114" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G114" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="25" t="s">
         <v>9</v>
       </c>
@@ -4531,22 +4188,19 @@
         <v>50</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F115" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="F115" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G115" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="25" t="s">
         <v>9</v>
       </c>
@@ -4557,22 +4211,19 @@
         <v>50</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="F116" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H116" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G116" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="25" t="s">
         <v>9</v>
       </c>
@@ -4583,22 +4234,19 @@
         <v>90</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G117" s="19" t="s">
+      <c r="F117" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H117" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G117" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
@@ -4609,22 +4257,19 @@
         <v>42</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H118" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="G118" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="40" t="s">
         <v>9</v>
       </c>
@@ -4634,23 +4279,20 @@
       <c r="C119" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D119" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F119" s="40" t="s">
+      <c r="E119" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H119" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F119" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G119" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="40" t="s">
         <v>9</v>
       </c>
@@ -4660,23 +4302,20 @@
       <c r="C120" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D120" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F120" s="40" t="s">
+      <c r="E120" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H120" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F120" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G120" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>9</v>
       </c>
@@ -4686,23 +4325,20 @@
       <c r="C121" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D121" s="6" t="s">
-        <v>9</v>
+      <c r="D121" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F121" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H121" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F121" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G121" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="19" t="s">
         <v>45</v>
       </c>
@@ -4712,23 +4348,20 @@
       <c r="C122" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D122" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E122" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H122" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D122" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G122" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="19" t="s">
         <v>9</v>
       </c>
@@ -4738,23 +4371,20 @@
       <c r="C123" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D123" s="19" t="s">
-        <v>9</v>
+      <c r="D123" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F123" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H123" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F123" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G123" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="25" t="s">
         <v>31</v>
       </c>
@@ -4765,22 +4395,19 @@
         <v>42</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E124" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H124" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G124" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="25" t="s">
         <v>33</v>
       </c>
@@ -4791,22 +4418,19 @@
         <v>42</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E125" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F125" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H125" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F125" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G125" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="19" t="s">
         <v>9</v>
       </c>
@@ -4817,22 +4441,19 @@
         <v>64</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F126" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H126" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F126" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G126" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="25" t="s">
         <v>9</v>
       </c>
@@ -4842,23 +4463,20 @@
       <c r="C127" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D127" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" s="19" t="s">
+      <c r="D127" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F127" s="25" t="s">
+      <c r="E127" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H127" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F127" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G127" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="25" t="s">
         <v>9</v>
       </c>
@@ -4868,23 +4486,20 @@
       <c r="C128" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D128" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E128" s="19" t="s">
+      <c r="D128" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F128" s="25" t="s">
+      <c r="E128" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H128" s="84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F128" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G128" s="84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="25" t="s">
         <v>40</v>
       </c>
@@ -4895,22 +4510,19 @@
         <v>42</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E129" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F129" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H129" s="89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F129" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G129" s="89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="25" t="s">
         <v>9</v>
       </c>
@@ -4920,23 +4532,20 @@
       <c r="C130" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D130" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" s="59" t="s">
+      <c r="D130" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F130" s="25" t="s">
+      <c r="E130" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G130" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F130" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="78" t="s">
         <v>68</v>
       </c>
@@ -4946,23 +4555,20 @@
       <c r="C131" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D131" s="78" t="s">
-        <v>68</v>
+      <c r="D131" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="E131" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F131" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G131" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F131" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="25" t="s">
         <v>9</v>
       </c>
@@ -4972,23 +4578,20 @@
       <c r="C132" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D132" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" s="6" t="s">
+      <c r="D132" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F132" s="25" t="s">
+      <c r="E132" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G132" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F132" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="25" t="s">
         <v>9</v>
       </c>
@@ -4998,23 +4601,20 @@
       <c r="C133" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D133" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E133" s="6" t="s">
+      <c r="D133" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F133" s="25" t="s">
+      <c r="E133" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G133" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F133" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="25" t="s">
         <v>9</v>
       </c>
@@ -5024,23 +4624,20 @@
       <c r="C134" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D134" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E134" s="6" t="s">
+      <c r="D134" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F134" s="25" t="s">
+      <c r="E134" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G134" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F134" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="25" t="s">
         <v>9</v>
       </c>
@@ -5050,23 +4647,20 @@
       <c r="C135" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D135" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" s="6" t="s">
+      <c r="D135" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F135" s="25" t="s">
+      <c r="E135" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G135" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F135" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="25" t="s">
         <v>9</v>
       </c>
@@ -5076,23 +4670,20 @@
       <c r="C136" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D136" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136" s="6" t="s">
+      <c r="D136" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F136" s="25" t="s">
+      <c r="E136" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G136" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F136" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="25" t="s">
         <v>9</v>
       </c>
@@ -5102,23 +4693,20 @@
       <c r="C137" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D137" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137" s="6" t="s">
+      <c r="D137" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F137" s="25" t="s">
+      <c r="E137" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G137" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F137" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="25" t="s">
         <v>9</v>
       </c>
@@ -5128,23 +4716,20 @@
       <c r="C138" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D138" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138" s="6" t="s">
+      <c r="D138" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F138" s="25" t="s">
+      <c r="E138" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G138" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F138" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="19" t="s">
         <v>9</v>
       </c>
@@ -5155,22 +4740,19 @@
         <v>64</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G139" s="88" t="s">
+      <c r="F139" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="H139" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G139" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="62" t="s">
         <v>22</v>
       </c>
@@ -5180,23 +4762,20 @@
       <c r="C140" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D140" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="E140" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G140" s="88" t="s">
+      <c r="D140" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="H140" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G140" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="69" t="s">
         <v>19</v>
       </c>
@@ -5206,23 +4785,20 @@
       <c r="C141" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D141" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="E141" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G141" s="88" t="s">
+      <c r="D141" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="H141" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G141" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="25" t="s">
         <v>9</v>
       </c>
@@ -5232,23 +4808,20 @@
       <c r="C142" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D142" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E142" s="69" t="s">
+      <c r="D142" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="F142" s="33" t="s">
+      <c r="E142" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G142" s="88" t="s">
+      <c r="F142" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="H142" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G142" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>9</v>
       </c>
@@ -5258,23 +4831,20 @@
       <c r="C143" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D143" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143" s="69" t="s">
+      <c r="D143" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="F143" s="6" t="s">
+      <c r="E143" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G143" s="88" t="s">
+      <c r="F143" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="H143" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G143" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="25" t="s">
         <v>10</v>
       </c>
@@ -5284,23 +4854,20 @@
       <c r="C144" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D144" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E144" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G144" s="88" t="s">
+      <c r="D144" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="H144" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G144" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="25" t="s">
         <v>9</v>
       </c>
@@ -5310,23 +4877,20 @@
       <c r="C145" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D145" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E145" s="71" t="s">
+      <c r="D145" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F145" s="6" t="s">
+      <c r="E145" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G145" s="88" t="s">
+      <c r="F145" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="H145" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G145" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
@@ -5336,23 +4900,20 @@
       <c r="C146" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E146" s="65" t="s">
+      <c r="D146" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G146" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F146" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>9</v>
       </c>
@@ -5363,22 +4924,19 @@
         <v>50</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F147" s="40" t="s">
+      <c r="E147" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="G147" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F147" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="40" t="s">
         <v>9</v>
       </c>
@@ -5389,22 +4947,19 @@
         <v>50</v>
       </c>
       <c r="D148" s="40" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E148" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F148" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G148" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F148" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>9</v>
       </c>
@@ -5414,23 +4969,20 @@
       <c r="C149" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D149" s="6" t="s">
-        <v>9</v>
+      <c r="D149" s="40" t="s">
+        <v>33</v>
       </c>
       <c r="E149" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F149" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="G149" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F149" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="19" t="s">
         <v>9</v>
       </c>
@@ -5440,23 +4992,20 @@
       <c r="C150" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D150" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E150" s="78" t="s">
+      <c r="D150" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="F150" s="40" t="s">
+      <c r="E150" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="G150" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F150" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="19" t="s">
         <v>50</v>
       </c>
@@ -5466,23 +5015,20 @@
       <c r="C151" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D151" s="19" t="s">
-        <v>50</v>
+      <c r="D151" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="E151" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F151" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G151" s="17" t="s">
+      <c r="F151" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H151" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G151" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="25" t="s">
         <v>9</v>
       </c>
@@ -5493,22 +5039,19 @@
         <v>50</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E152" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F152" s="19" t="s">
+      <c r="E152" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="G152" s="17" t="s">
+      <c r="F152" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H152" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G152" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="28" t="s">
         <v>9</v>
       </c>
@@ -5519,22 +5062,19 @@
         <v>50</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E153" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F153" s="57" t="s">
+      <c r="E153" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="G153" s="22" t="s">
+      <c r="F153" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H153" s="90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G153" s="90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>56</v>
       </c>
@@ -5545,22 +5085,19 @@
         <v>42</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="40" t="s">
         <v>9</v>
       </c>
@@ -5570,23 +5107,20 @@
       <c r="C155" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D155" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E155" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F155" s="40" t="s">
+      <c r="E155" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G155" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F155" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="40" t="s">
         <v>9</v>
       </c>
@@ -5596,23 +5130,20 @@
       <c r="C156" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D156" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E156" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F156" s="40" t="s">
+      <c r="E156" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G156" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F156" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>9</v>
       </c>
@@ -5622,23 +5153,20 @@
       <c r="C157" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D157" s="6" t="s">
-        <v>9</v>
+      <c r="D157" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F157" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G157" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F157" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="19" t="s">
         <v>45</v>
       </c>
@@ -5648,23 +5176,20 @@
       <c r="C158" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D158" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E158" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F158" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D158" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="19" t="s">
         <v>9</v>
       </c>
@@ -5674,23 +5199,20 @@
       <c r="C159" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D159" s="19" t="s">
-        <v>9</v>
+      <c r="D159" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="E159" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F159" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G159" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F159" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="25" t="s">
         <v>31</v>
       </c>
@@ -5701,22 +5223,19 @@
         <v>42</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E160" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="E160" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="25" t="s">
         <v>33</v>
       </c>
@@ -5727,22 +5246,19 @@
         <v>42</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E161" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F161" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F161" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="19" t="s">
         <v>9</v>
       </c>
@@ -5753,22 +5269,19 @@
         <v>64</v>
       </c>
       <c r="D162" s="19" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E162" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F162" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G162" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F162" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="25" t="s">
         <v>9</v>
       </c>
@@ -5778,23 +5291,20 @@
       <c r="C163" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D163" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" s="19" t="s">
+      <c r="D163" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F163" s="25" t="s">
+      <c r="E163" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G163" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F163" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="25" t="s">
         <v>9</v>
       </c>
@@ -5804,23 +5314,20 @@
       <c r="C164" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D164" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E164" s="19" t="s">
+      <c r="D164" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F164" s="25" t="s">
+      <c r="E164" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G164" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F164" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="25" t="s">
         <v>40</v>
       </c>
@@ -5831,22 +5338,19 @@
         <v>42</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E165" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F165" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F165" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="25" t="s">
         <v>9</v>
       </c>
@@ -5856,23 +5360,20 @@
       <c r="C166" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D166" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E166" s="59" t="s">
+      <c r="D166" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F166" s="25" t="s">
+      <c r="E166" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G166" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F166" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="78" t="s">
         <v>68</v>
       </c>
@@ -5882,23 +5383,20 @@
       <c r="C167" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D167" s="78" t="s">
-        <v>68</v>
+      <c r="D167" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="E167" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F167" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F167" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="25" t="s">
         <v>9</v>
       </c>
@@ -5908,23 +5406,20 @@
       <c r="C168" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D168" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E168" s="6" t="s">
+      <c r="D168" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F168" s="25" t="s">
+      <c r="E168" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G168" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F168" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="25" t="s">
         <v>9</v>
       </c>
@@ -5934,23 +5429,20 @@
       <c r="C169" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D169" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E169" s="6" t="s">
+      <c r="D169" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F169" s="25" t="s">
+      <c r="E169" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G169" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F169" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="25" t="s">
         <v>9</v>
       </c>
@@ -5960,23 +5452,20 @@
       <c r="C170" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D170" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E170" s="6" t="s">
+      <c r="D170" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F170" s="25" t="s">
+      <c r="E170" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G170" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F170" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="25" t="s">
         <v>9</v>
       </c>
@@ -5986,23 +5475,20 @@
       <c r="C171" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D171" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E171" s="6" t="s">
+      <c r="D171" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F171" s="25" t="s">
+      <c r="E171" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G171" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F171" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="25" t="s">
         <v>9</v>
       </c>
@@ -6012,23 +5498,20 @@
       <c r="C172" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D172" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E172" s="6" t="s">
+      <c r="D172" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F172" s="25" t="s">
+      <c r="E172" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F172" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="25" t="s">
         <v>9</v>
       </c>
@@ -6038,23 +5521,20 @@
       <c r="C173" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D173" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E173" s="6" t="s">
+      <c r="D173" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F173" s="25" t="s">
+      <c r="E173" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G173" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F173" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="25" t="s">
         <v>9</v>
       </c>
@@ -6064,23 +5544,20 @@
       <c r="C174" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D174" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E174" s="6" t="s">
+      <c r="D174" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F174" s="25" t="s">
+      <c r="E174" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G174" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F174" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="19" t="s">
         <v>9</v>
       </c>
@@ -6091,22 +5568,19 @@
         <v>64</v>
       </c>
       <c r="D175" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E175" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F175" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G175" s="65" t="s">
+      <c r="F175" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H175" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G175" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="62" t="s">
         <v>22</v>
       </c>
@@ -6116,23 +5590,20 @@
       <c r="C176" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D176" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="E176" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F176" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G176" s="65" t="s">
+      <c r="D176" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H176" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G176" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="69" t="s">
         <v>19</v>
       </c>
@@ -6142,23 +5613,20 @@
       <c r="C177" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D177" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="E177" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F177" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G177" s="65" t="s">
+      <c r="D177" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H177" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G177" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="25" t="s">
         <v>9</v>
       </c>
@@ -6168,23 +5636,20 @@
       <c r="C178" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D178" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E178" s="69" t="s">
+      <c r="D178" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="F178" s="33" t="s">
+      <c r="E178" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G178" s="65" t="s">
+      <c r="F178" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H178" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G178" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="6" t="s">
         <v>9</v>
       </c>
@@ -6194,23 +5659,20 @@
       <c r="C179" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D179" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E179" s="69" t="s">
+      <c r="D179" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="F179" s="6" t="s">
+      <c r="E179" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G179" s="65" t="s">
+      <c r="F179" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H179" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G179" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="25" t="s">
         <v>10</v>
       </c>
@@ -6220,23 +5682,20 @@
       <c r="C180" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D180" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E180" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F180" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G180" s="65" t="s">
+      <c r="D180" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H180" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G180" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="25" t="s">
         <v>9</v>
       </c>
@@ -6246,23 +5705,20 @@
       <c r="C181" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D181" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E181" s="71" t="s">
+      <c r="D181" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F181" s="6" t="s">
+      <c r="E181" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G181" s="65" t="s">
+      <c r="F181" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H181" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G181" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>9</v>
       </c>
@@ -6273,22 +5729,19 @@
         <v>50</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="40" t="s">
         <v>9</v>
       </c>
@@ -6298,23 +5751,20 @@
       <c r="C183" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D183" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E183" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F183" s="40" t="s">
+      <c r="E183" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="G183" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F183" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="40" t="s">
         <v>9</v>
       </c>
@@ -6325,22 +5775,19 @@
         <v>50</v>
       </c>
       <c r="D184" s="40" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E184" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F184" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G184" s="1" t="s">
+      <c r="F184" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H184" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G184" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="19" t="s">
         <v>9</v>
       </c>
@@ -6350,23 +5797,20 @@
       <c r="C185" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D185" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E185" s="25" t="s">
+      <c r="D185" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F185" s="19" t="s">
+      <c r="E185" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="F185" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H185" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G185" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="19" t="s">
         <v>9</v>
       </c>
@@ -6376,23 +5820,20 @@
       <c r="C186" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D186" s="19" t="s">
-        <v>9</v>
+      <c r="D186" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E186" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F186" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="F186" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H186" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G186" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="25" t="s">
         <v>50</v>
       </c>
@@ -6403,22 +5844,19 @@
         <v>50</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E187" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F187" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G187" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H187" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G187" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="25" t="s">
         <v>9</v>
       </c>
@@ -6429,22 +5867,19 @@
         <v>50</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E188" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F188" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="F188" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H188" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G188" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="25" t="s">
         <v>9</v>
       </c>
@@ -6455,22 +5890,19 @@
         <v>50</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F189" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="F189" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H189" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G189" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>56</v>
       </c>
@@ -6481,22 +5913,19 @@
         <v>42</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H190" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="40" t="s">
         <v>9</v>
       </c>
@@ -6506,23 +5935,20 @@
       <c r="C191" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D191" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E191" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F191" s="40" t="s">
+      <c r="E191" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G191" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H191" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F191" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="40" t="s">
         <v>9</v>
       </c>
@@ -6532,23 +5958,20 @@
       <c r="C192" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D192" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E192" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F192" s="40" t="s">
+      <c r="E192" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G192" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H192" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F192" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="6" t="s">
         <v>9</v>
       </c>
@@ -6558,23 +5981,20 @@
       <c r="C193" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D193" s="6" t="s">
-        <v>9</v>
+      <c r="D193" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="E193" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F193" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G193" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H193" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F193" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="19" t="s">
         <v>45</v>
       </c>
@@ -6584,23 +6004,20 @@
       <c r="C194" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D194" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E194" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F194" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H194" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D194" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="19" t="s">
         <v>9</v>
       </c>
@@ -6610,23 +6027,20 @@
       <c r="C195" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D195" s="19" t="s">
-        <v>9</v>
+      <c r="D195" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="E195" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F195" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G195" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H195" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F195" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="25" t="s">
         <v>31</v>
       </c>
@@ -6637,22 +6051,19 @@
         <v>42</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E196" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F196" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H196" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="E196" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="25" t="s">
         <v>33</v>
       </c>
@@ -6663,22 +6074,19 @@
         <v>42</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E197" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F197" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H197" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F197" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="19" t="s">
         <v>9</v>
       </c>
@@ -6689,22 +6097,19 @@
         <v>64</v>
       </c>
       <c r="D198" s="19" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E198" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F198" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G198" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H198" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F198" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="25" t="s">
         <v>9</v>
       </c>
@@ -6714,23 +6119,20 @@
       <c r="C199" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D199" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E199" s="19" t="s">
+      <c r="D199" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F199" s="25" t="s">
+      <c r="E199" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G199" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H199" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F199" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="25" t="s">
         <v>9</v>
       </c>
@@ -6740,23 +6142,20 @@
       <c r="C200" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D200" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E200" s="19" t="s">
+      <c r="D200" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F200" s="25" t="s">
+      <c r="E200" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G200" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H200" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F200" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="25" t="s">
         <v>40</v>
       </c>
@@ -6767,22 +6166,19 @@
         <v>42</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E201" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F201" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H201" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F201" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="25" t="s">
         <v>9</v>
       </c>
@@ -6792,23 +6188,20 @@
       <c r="C202" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D202" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E202" s="59" t="s">
+      <c r="D202" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F202" s="25" t="s">
+      <c r="E202" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G202" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H202" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F202" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="78" t="s">
         <v>68</v>
       </c>
@@ -6818,23 +6211,20 @@
       <c r="C203" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D203" s="78" t="s">
-        <v>68</v>
+      <c r="D203" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="E203" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F203" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H203" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F203" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="25" t="s">
         <v>9</v>
       </c>
@@ -6844,23 +6234,20 @@
       <c r="C204" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D204" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E204" s="6" t="s">
+      <c r="D204" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F204" s="25" t="s">
+      <c r="E204" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G204" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H204" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F204" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="25" t="s">
         <v>9</v>
       </c>
@@ -6870,23 +6257,20 @@
       <c r="C205" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D205" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E205" s="6" t="s">
+      <c r="D205" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F205" s="25" t="s">
+      <c r="E205" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G205" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H205" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F205" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="25" t="s">
         <v>9</v>
       </c>
@@ -6896,23 +6280,20 @@
       <c r="C206" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D206" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E206" s="6" t="s">
+      <c r="D206" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F206" s="25" t="s">
+      <c r="E206" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G206" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F206" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="25" t="s">
         <v>9</v>
       </c>
@@ -6922,23 +6303,20 @@
       <c r="C207" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D207" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E207" s="6" t="s">
+      <c r="D207" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F207" s="25" t="s">
+      <c r="E207" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G207" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H207" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F207" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="25" t="s">
         <v>9</v>
       </c>
@@ -6948,23 +6326,20 @@
       <c r="C208" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D208" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E208" s="6" t="s">
+      <c r="D208" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F208" s="25" t="s">
+      <c r="E208" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G208" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H208" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F208" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="25" t="s">
         <v>9</v>
       </c>
@@ -6974,23 +6349,20 @@
       <c r="C209" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D209" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E209" s="6" t="s">
+      <c r="D209" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F209" s="25" t="s">
+      <c r="E209" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G209" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H209" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F209" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="25" t="s">
         <v>9</v>
       </c>
@@ -7000,23 +6372,20 @@
       <c r="C210" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D210" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E210" s="6" t="s">
+      <c r="D210" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F210" s="25" t="s">
+      <c r="E210" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="G210" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H210" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F210" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="19" t="s">
         <v>9</v>
       </c>
@@ -7027,22 +6396,19 @@
         <v>64</v>
       </c>
       <c r="D211" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E211" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F211" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G211" s="65" t="s">
+      <c r="F211" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H211" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G211" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="62" t="s">
         <v>22</v>
       </c>
@@ -7052,23 +6418,20 @@
       <c r="C212" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D212" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="E212" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F212" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G212" s="65" t="s">
+      <c r="D212" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F212" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H212" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G212" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="69" t="s">
         <v>19</v>
       </c>
@@ -7078,23 +6441,20 @@
       <c r="C213" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D213" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="E213" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F213" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G213" s="65" t="s">
+      <c r="D213" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F213" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H213" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G213" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="25" t="s">
         <v>9</v>
       </c>
@@ -7104,23 +6464,20 @@
       <c r="C214" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D214" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E214" s="69" t="s">
+      <c r="D214" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="F214" s="33" t="s">
+      <c r="E214" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G214" s="65" t="s">
+      <c r="F214" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H214" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G214" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="6" t="s">
         <v>9</v>
       </c>
@@ -7130,23 +6487,20 @@
       <c r="C215" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D215" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E215" s="69" t="s">
+      <c r="D215" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="F215" s="6" t="s">
+      <c r="E215" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G215" s="65" t="s">
+      <c r="F215" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H215" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G215" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="25" t="s">
         <v>10</v>
       </c>
@@ -7156,23 +6510,20 @@
       <c r="C216" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D216" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E216" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F216" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G216" s="65" t="s">
+      <c r="D216" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F216" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H216" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G216" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="25" t="s">
         <v>9</v>
       </c>
@@ -7182,23 +6533,20 @@
       <c r="C217" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D217" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E217" s="71" t="s">
+      <c r="D217" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F217" s="6" t="s">
+      <c r="E217" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G217" s="65" t="s">
+      <c r="F217" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H217" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G217" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>9</v>
       </c>
@@ -7209,22 +6557,19 @@
         <v>50</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H218" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="40" t="s">
         <v>9</v>
       </c>
@@ -7234,23 +6579,20 @@
       <c r="C219" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D219" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E219" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F219" s="40" t="s">
+      <c r="E219" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="G219" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H219" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F219" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="40" t="s">
         <v>9</v>
       </c>
@@ -7261,22 +6603,19 @@
         <v>50</v>
       </c>
       <c r="D220" s="40" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E220" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F220" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G220" s="1" t="s">
+      <c r="F220" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H220" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G220" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="19" t="s">
         <v>9</v>
       </c>
@@ -7286,23 +6625,20 @@
       <c r="C221" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D221" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E221" s="25" t="s">
+      <c r="D221" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F221" s="19" t="s">
+      <c r="E221" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="F221" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H221" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G221" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="19" t="s">
         <v>9</v>
       </c>
@@ -7312,23 +6648,20 @@
       <c r="C222" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D222" s="19" t="s">
-        <v>9</v>
+      <c r="D222" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="E222" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F222" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G222" s="1" t="s">
+      <c r="F222" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H222" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G222" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="25" t="s">
         <v>50</v>
       </c>
@@ -7339,22 +6672,19 @@
         <v>50</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E223" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F223" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F223" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H223" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G223" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="25" t="s">
         <v>9</v>
       </c>
@@ -7365,22 +6695,19 @@
         <v>50</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E224" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F224" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="F224" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H224" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G224" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="25" t="s">
         <v>9</v>
       </c>
@@ -7391,22 +6718,19 @@
         <v>50</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F225" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="F225" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H225" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G225" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="17" t="s">
         <v>56</v>
       </c>
@@ -7417,22 +6741,19 @@
         <v>42</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="E226" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F226" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G226" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H226" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="32" t="s">
         <v>9</v>
       </c>
@@ -7442,23 +6763,20 @@
       <c r="C227" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D227" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E227" s="17" t="s">
+      <c r="D227" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F227" s="32" t="s">
+      <c r="E227" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G227" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H227" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F227" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="32" t="s">
         <v>9</v>
       </c>
@@ -7468,23 +6786,20 @@
       <c r="C228" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D228" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E228" s="17" t="s">
+      <c r="D228" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F228" s="32" t="s">
+      <c r="E228" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="G228" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H228" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F228" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="34" t="s">
         <v>9</v>
       </c>
@@ -7494,23 +6809,20 @@
       <c r="C229" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D229" s="34" t="s">
-        <v>9</v>
+      <c r="D229" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="E229" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F229" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G229" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H229" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F229" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="35" t="s">
         <v>45</v>
       </c>
@@ -7520,23 +6832,20 @@
       <c r="C230" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D230" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E230" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F230" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G230" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H230" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D230" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E230" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F230" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="19" t="s">
         <v>9</v>
       </c>
@@ -7546,23 +6855,20 @@
       <c r="C231" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D231" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E231" s="29" t="s">
+      <c r="D231" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F231" s="25" t="s">
+      <c r="E231" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G231" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H231" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F231" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="25" t="s">
         <v>31</v>
       </c>
@@ -7573,22 +6879,19 @@
         <v>42</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E232" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F232" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G232" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H232" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="E232" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F232" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="25" t="s">
         <v>33</v>
       </c>
@@ -7599,22 +6902,19 @@
         <v>42</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E233" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F233" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G233" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H233" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F233" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="57" t="s">
         <v>9</v>
       </c>
@@ -7625,22 +6925,19 @@
         <v>64</v>
       </c>
       <c r="D234" s="57" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E234" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="F234" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="G234" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H234" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F234" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="42" t="s">
         <v>9</v>
       </c>
@@ -7650,23 +6947,20 @@
       <c r="C235" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D235" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E235" s="57" t="s">
+      <c r="D235" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="F235" s="21" t="s">
+      <c r="E235" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G235" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H235" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F235" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="42" t="s">
         <v>9</v>
       </c>
@@ -7676,23 +6970,20 @@
       <c r="C236" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D236" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E236" s="57" t="s">
+      <c r="D236" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="F236" s="21" t="s">
+      <c r="E236" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G236" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H236" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F236" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="25" t="s">
         <v>40</v>
       </c>
@@ -7703,22 +6994,19 @@
         <v>42</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E237" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F237" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G237" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H237" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="E237" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="25" t="s">
         <v>9</v>
       </c>
@@ -7728,23 +7016,20 @@
       <c r="C238" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D238" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E238" s="58" t="s">
+      <c r="D238" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="F238" s="21" t="s">
+      <c r="E238" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G238" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H238" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F238" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="13" t="s">
         <v>68</v>
       </c>
@@ -7754,23 +7039,20 @@
       <c r="C239" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D239" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E239" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F239" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G239" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H239" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D239" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="25" t="s">
         <v>9</v>
       </c>
@@ -7780,23 +7062,20 @@
       <c r="C240" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D240" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E240" s="18" t="s">
+      <c r="D240" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F240" s="25" t="s">
+      <c r="E240" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G240" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H240" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F240" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="25" t="s">
         <v>9</v>
       </c>
@@ -7806,23 +7085,20 @@
       <c r="C241" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D241" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E241" s="18" t="s">
+      <c r="D241" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F241" s="25" t="s">
+      <c r="E241" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G241" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H241" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F241" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="25" t="s">
         <v>9</v>
       </c>
@@ -7832,23 +7108,20 @@
       <c r="C242" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D242" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E242" s="18" t="s">
+      <c r="D242" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F242" s="25" t="s">
+      <c r="E242" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G242" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H242" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F242" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="25" t="s">
         <v>9</v>
       </c>
@@ -7858,23 +7131,20 @@
       <c r="C243" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D243" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E243" s="18" t="s">
+      <c r="D243" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F243" s="25" t="s">
+      <c r="E243" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G243" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H243" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F243" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="25" t="s">
         <v>9</v>
       </c>
@@ -7884,23 +7154,20 @@
       <c r="C244" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D244" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E244" s="18" t="s">
+      <c r="D244" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F244" s="25" t="s">
+      <c r="E244" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G244" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H244" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F244" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="25" t="s">
         <v>9</v>
       </c>
@@ -7910,23 +7177,20 @@
       <c r="C245" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D245" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E245" s="18" t="s">
+      <c r="D245" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F245" s="25" t="s">
+      <c r="E245" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G245" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H245" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F245" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="28" t="s">
         <v>9</v>
       </c>
@@ -7936,23 +7200,20 @@
       <c r="C246" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D246" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E246" s="39" t="s">
+      <c r="D246" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F246" s="28" t="s">
+      <c r="E246" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="G246" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="H246" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F246" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="57" t="s">
         <v>9</v>
       </c>
@@ -7962,23 +7223,20 @@
       <c r="C247" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="D247" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E247" s="19" t="s">
+      <c r="D247" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F247" s="17" t="s">
+      <c r="E247" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G247" s="65" t="s">
+      <c r="F247" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H247" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G247" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="62" t="s">
         <v>22</v>
       </c>
@@ -7988,23 +7246,20 @@
       <c r="C248" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D248" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="E248" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F248" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G248" s="67" t="s">
+      <c r="D248" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E248" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F248" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="H248" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G248" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="64" t="s">
         <v>19</v>
       </c>
@@ -8014,23 +7269,20 @@
       <c r="C249" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D249" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="E249" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F249" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G249" s="65" t="s">
+      <c r="D249" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E249" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F249" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H249" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G249" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A250" s="70" t="s">
         <v>9</v>
       </c>
@@ -8040,23 +7292,20 @@
       <c r="C250" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D250" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E250" s="69" t="s">
+      <c r="D250" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="F250" s="74" t="s">
+      <c r="E250" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="G250" s="68" t="s">
+      <c r="F250" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H250" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G250" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="34" t="s">
         <v>9</v>
       </c>
@@ -8066,23 +7315,20 @@
       <c r="C251" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D251" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E251" s="72" t="s">
+      <c r="D251" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="F251" s="6" t="s">
+      <c r="E251" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G251" s="68" t="s">
+      <c r="F251" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H251" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G251" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="29" t="s">
         <v>10</v>
       </c>
@@ -8092,23 +7338,20 @@
       <c r="C252" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D252" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E252" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F252" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G252" s="68" t="s">
+      <c r="D252" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F252" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H252" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G252" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="21" t="s">
         <v>9</v>
       </c>
@@ -8118,23 +7361,20 @@
       <c r="C253" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D253" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E253" s="71" t="s">
+      <c r="D253" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F253" s="75" t="s">
+      <c r="E253" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="G253" s="68" t="s">
+      <c r="F253" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H253" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G253" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="17" t="s">
         <v>9</v>
       </c>
@@ -8145,22 +7385,19 @@
         <v>50</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E254" s="17" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F254" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G254" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H254" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="32" t="s">
         <v>9</v>
       </c>
@@ -8170,23 +7407,20 @@
       <c r="C255" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D255" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E255" s="17" t="s">
+      <c r="D255" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F255" s="32" t="s">
+      <c r="E255" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G255" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H255" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F255" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="32" t="s">
         <v>9</v>
       </c>
@@ -8197,22 +7431,19 @@
         <v>50</v>
       </c>
       <c r="D256" s="32" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E256" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F256" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="G256" s="17" t="s">
+      <c r="F256" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H256" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G256" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="35" t="s">
         <v>9</v>
       </c>
@@ -8222,23 +7453,20 @@
       <c r="C257" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D257" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E257" s="29" t="s">
+      <c r="D257" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F257" s="35" t="s">
+      <c r="E257" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="G257" s="17" t="s">
+      <c r="F257" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H257" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G257" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="19" t="s">
         <v>9</v>
       </c>
@@ -8248,23 +7476,20 @@
       <c r="C258" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D258" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E258" s="29" t="s">
+      <c r="D258" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F258" s="25" t="s">
+      <c r="E258" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G258" s="17" t="s">
+      <c r="F258" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H258" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G258" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="25" t="s">
         <v>50</v>
       </c>
@@ -8275,22 +7500,19 @@
         <v>50</v>
       </c>
       <c r="D259" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E259" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F259" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G259" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E259" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F259" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H259" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G259" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="25" t="s">
         <v>9</v>
       </c>
@@ -8301,22 +7523,19 @@
         <v>50</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E260" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F260" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G260" s="17" t="s">
+      <c r="F260" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H260" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G260" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="28" t="s">
         <v>9</v>
       </c>
@@ -8327,18 +7546,15 @@
         <v>50</v>
       </c>
       <c r="D261" s="28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E261" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F261" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G261" s="17" t="s">
+      <c r="F261" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H261" s="2" t="s">
+      <c r="G261" s="2" t="s">
         <v>9</v>
       </c>
     </row>
